--- a/backend/src/main/resources/template/user_template.xlsx
+++ b/backend/src/main/resources/template/user_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-satou\Desktop\n-satou\n-satou\0710\fcsslabo\backend\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-satou\Desktop\n-satou\n-satou\template\fcsslabo\backend\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A57415-9DEF-40DC-8891-C4B47904A03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F932C-9C0B-438F-A811-95A5EA2323AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0071B1F-8702-4935-B3DC-4CEAD9AC61DE}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -511,7 +511,8 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45849</v>
+        <f ca="1">TODAY()</f>
+        <v>45852</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
